--- a/results/I2_N10_T100_C325_0_P2_res.xlsx
+++ b/results/I2_N10_T100_C325_0_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>179.6474223937857</v>
+        <v>33.0671278619396</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01999998092651367</v>
+        <v>0.009999990463256836</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.16742239378572</v>
+        <v>33.0671278619396</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.462873931000123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.462873931000123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>149.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,39 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -667,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -678,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -689,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -700,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -711,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -722,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -733,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -744,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -755,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -766,7 +733,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -777,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -788,7 +755,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -1017,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34.12074022476546</v>
+        <v>32.61192465059682</v>
       </c>
     </row>
     <row r="4">
@@ -1025,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>34.69770569366315</v>
       </c>
     </row>
     <row r="5">
@@ -1033,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30.34885527085025</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1041,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>36.71579249669672</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1049,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>36.71579249669672</v>
       </c>
     </row>
     <row r="8">
@@ -1057,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>30.34885527085025</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34.72107346555759</v>
+        <v>32.01159140980468</v>
       </c>
     </row>
     <row r="10">
@@ -1073,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>34.40354251021169</v>
+        <v>32.31224998648503</v>
       </c>
     </row>
     <row r="11">
@@ -1081,7 +1048,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>31.94987179065701</v>
+        <v>34.76592070603971</v>
       </c>
     </row>
     <row r="12">
@@ -1089,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>36.73266487536227</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -1097,7 +1064,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>32.66758337047729</v>
+        <v>37.94859027624736</v>
       </c>
     </row>
     <row r="14">
@@ -1105,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>40.23171342868595</v>
+        <v>37.90090852477161</v>
       </c>
     </row>
     <row r="15">
@@ -1113,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>40.83745476036248</v>
+        <v>37.27819014430416</v>
       </c>
     </row>
   </sheetData>
@@ -1127,7 +1094,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1155,48 +1122,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B2" t="n">
-        <v>13</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>13</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>13</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>191.4200000000015</v>
+        <v>250.970000000001</v>
       </c>
     </row>
     <row r="8">
@@ -1309,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>198.2699999999999</v>
+        <v>260.990000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1320,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>197.9849999999998</v>
+        <v>252.9750000000009</v>
       </c>
     </row>
     <row r="10">
@@ -1331,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>199.5900000000015</v>
+        <v>269.580000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1342,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>203.15</v>
+        <v>250.575000000001</v>
       </c>
     </row>
     <row r="12">
@@ -1353,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>81.47500000000072</v>
+        <v>235.775</v>
       </c>
     </row>
     <row r="13">
@@ -1364,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>80.68000000000072</v>
+        <v>229.025</v>
       </c>
     </row>
     <row r="14">
@@ -1375,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>84.71500000000073</v>
+        <v>213.42</v>
       </c>
     </row>
     <row r="15">
@@ -1386,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>80.43500000000073</v>
+        <v>226.76</v>
       </c>
     </row>
     <row r="16">
@@ -1397,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>87.34500000000074</v>
+        <v>221.56</v>
       </c>
     </row>
     <row r="17">
@@ -1408,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>154.3</v>
+        <v>46.91999999999942</v>
       </c>
     </row>
     <row r="18">
@@ -1419,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>148.3449999999993</v>
+        <v>36.10499999999942</v>
       </c>
     </row>
     <row r="19">
@@ -1430,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>128.7049999999993</v>
+        <v>34.91499999999942</v>
       </c>
     </row>
     <row r="20">
@@ -1441,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>146.3249999999993</v>
+        <v>37.48999999999942</v>
       </c>
     </row>
     <row r="21">
@@ -1452,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>134.2149999999993</v>
+        <v>39.43499999999941</v>
       </c>
     </row>
     <row r="22">
@@ -1463,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>295.9199999999996</v>
+        <v>72.6299999999995</v>
       </c>
     </row>
     <row r="23">
@@ -1474,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>323.5</v>
+        <v>80.0549999999995</v>
       </c>
     </row>
     <row r="24">
@@ -1485,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>294.2649999999996</v>
+        <v>82.31999999999948</v>
       </c>
     </row>
     <row r="25">
@@ -1496,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>311.1</v>
+        <v>83.9549999999995</v>
       </c>
     </row>
     <row r="26">
@@ -1507,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>297.3649999999997</v>
+        <v>80.8149999999995</v>
       </c>
     </row>
     <row r="27">
@@ -1518,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>69.88000000000022</v>
+        <v>295.9199999999997</v>
       </c>
     </row>
     <row r="28">
@@ -1529,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>76.32000000000022</v>
+        <v>323.5</v>
       </c>
     </row>
     <row r="29">
@@ -1540,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>72.41000000000021</v>
+        <v>294.2649999999996</v>
       </c>
     </row>
     <row r="30">
@@ -1551,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>72.64500000000022</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="31">
@@ -1562,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>72.89000000000021</v>
+        <v>297.3649999999997</v>
       </c>
     </row>
     <row r="32">
@@ -1573,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>107.3799999999999</v>
+        <v>154.3</v>
       </c>
     </row>
     <row r="33">
@@ -1584,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>112.2399999999999</v>
+        <v>148.3449999999993</v>
       </c>
     </row>
     <row r="34">
@@ -1595,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>93.78999999999985</v>
+        <v>128.7049999999993</v>
       </c>
     </row>
     <row r="35">
@@ -1606,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>108.8349999999998</v>
+        <v>146.3249999999993</v>
       </c>
     </row>
     <row r="36">
@@ -1617,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>94.77999999999986</v>
+        <v>134.2149999999993</v>
       </c>
     </row>
     <row r="37">
@@ -1628,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>274.4950000000007</v>
+        <v>141.0250000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1639,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>282.9900000000007</v>
+        <v>143.4</v>
       </c>
     </row>
     <row r="39">
@@ -1650,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>275.9600000000007</v>
+        <v>139.7050000000001</v>
       </c>
     </row>
     <row r="40">
@@ -1661,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>289.36</v>
+        <v>150.4250000000002</v>
       </c>
     </row>
     <row r="41">
@@ -1672,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>285.005</v>
+        <v>134.7700000000002</v>
       </c>
     </row>
     <row r="42">
@@ -1683,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>223.2900000000001</v>
+        <v>140.5549999999989</v>
       </c>
     </row>
     <row r="43">
@@ -1694,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>243.4450000000002</v>
+        <v>159.2149999999988</v>
       </c>
     </row>
     <row r="44">
@@ -1705,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>211.9450000000002</v>
+        <v>142.1399999999988</v>
       </c>
     </row>
     <row r="45">
@@ -1716,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>227.1450000000002</v>
+        <v>147.7249999999989</v>
       </c>
     </row>
     <row r="46">
@@ -1727,7 +1652,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>216.55</v>
+        <v>139.7449999999989</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>155.3650000000007</v>
+        <v>226.0399999999994</v>
       </c>
     </row>
     <row r="48">
@@ -1749,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>164.2850000000007</v>
+        <v>247.1799999999993</v>
       </c>
     </row>
     <row r="49">
@@ -1760,7 +1685,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>152.1250000000007</v>
+        <v>221.8549999999994</v>
       </c>
     </row>
     <row r="50">
@@ -1771,7 +1696,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>163.3750000000007</v>
+        <v>238.4549999999994</v>
       </c>
     </row>
     <row r="51">
@@ -1782,7 +1707,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>157.6200000000007</v>
+        <v>224.4749999999994</v>
       </c>
     </row>
     <row r="52">
@@ -1793,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>332.445</v>
+        <v>57.95</v>
       </c>
     </row>
     <row r="53">
@@ -1804,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>341.67</v>
+        <v>58.67999999999927</v>
       </c>
     </row>
     <row r="54">
@@ -1815,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>337.69</v>
+        <v>61.72999999999927</v>
       </c>
     </row>
     <row r="55">
@@ -1826,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>350.015</v>
+        <v>60.65499999999928</v>
       </c>
     </row>
     <row r="56">
@@ -1837,7 +1762,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>337.92</v>
+        <v>52.91499999999927</v>
       </c>
     </row>
     <row r="57">
@@ -1848,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>154.3</v>
+        <v>250.970000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1859,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>148.3449999999993</v>
+        <v>260.990000000001</v>
       </c>
     </row>
     <row r="59">
@@ -1870,7 +1795,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>128.7049999999993</v>
+        <v>252.9750000000009</v>
       </c>
     </row>
     <row r="60">
@@ -1881,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>146.3249999999993</v>
+        <v>269.580000000001</v>
       </c>
     </row>
     <row r="61">
@@ -1892,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>134.2149999999993</v>
+        <v>250.575000000001</v>
       </c>
     </row>
     <row r="62">
@@ -1903,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>295.9199999999996</v>
+        <v>295.9199999999997</v>
       </c>
     </row>
     <row r="63">
@@ -1958,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>332.445</v>
+        <v>235.775</v>
       </c>
     </row>
     <row r="68">
@@ -1969,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>341.67</v>
+        <v>229.025</v>
       </c>
     </row>
     <row r="69">
@@ -1980,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>337.69</v>
+        <v>213.42</v>
       </c>
     </row>
     <row r="70">
@@ -1991,7 +1916,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>350.015</v>
+        <v>226.76</v>
       </c>
     </row>
     <row r="71">
@@ -2002,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>337.92</v>
+        <v>221.56</v>
       </c>
     </row>
   </sheetData>
@@ -2159,7 +2084,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7.445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2170,7 +2095,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>16.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2181,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>12.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2192,7 +2117,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>25.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2203,7 +2128,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>12.92</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2803,7 +2728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2828,61 +2753,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>10</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/I2_N10_T100_C325_0_P2_res.xlsx
+++ b/results/I2_N10_T100_C325_0_P2_res.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.01000022888183594</v>
       </c>
     </row>
     <row r="5">
